--- a/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_rf_nrs.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_rf_nrs.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>138.2312500476837</v>
+        <v>103.5811793804169</v>
       </c>
       <c r="C2">
-        <v>55.87170739209946</v>
+        <v>1.358198801573615</v>
       </c>
       <c r="D2">
-        <v>4.262320804595947</v>
+        <v>1.246660041809082</v>
       </c>
       <c r="E2">
-        <v>2.005623593122055</v>
+        <v>0.8408954193808515</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -585,25 +585,25 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.8282828282828283</v>
+        <v>0.8639455782312925</v>
       </c>
       <c r="K2">
-        <v>0.8585858585858586</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L2">
-        <v>0.8344594594594594</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M2">
-        <v>0.8581081081081081</v>
+        <v>0.8088737201365188</v>
       </c>
       <c r="N2">
-        <v>0.8614864864864865</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="O2">
-        <v>0.8481845481845482</v>
+        <v>0.8514615402474982</v>
       </c>
       <c r="P2">
-        <v>0.01391447000620245</v>
+        <v>0.03478939305208854</v>
       </c>
       <c r="Q2">
         <v>23</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>235.2061633586883</v>
+        <v>285.6810375213623</v>
       </c>
       <c r="C3">
-        <v>119.6754638092383</v>
+        <v>63.43899121949803</v>
       </c>
       <c r="D3">
-        <v>5.990804624557495</v>
+        <v>5.295940256118774</v>
       </c>
       <c r="E3">
-        <v>2.895038002038395</v>
+        <v>1.35689476031574</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -638,25 +638,25 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.8282828282828283</v>
+        <v>0.8605442176870748</v>
       </c>
       <c r="K3">
-        <v>0.8653198653198653</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="L3">
-        <v>0.8378378378378378</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="M3">
-        <v>0.8581081081081081</v>
+        <v>0.8088737201365188</v>
       </c>
       <c r="N3">
-        <v>0.8581081081081081</v>
+        <v>0.8498293515358362</v>
       </c>
       <c r="O3">
-        <v>0.8495313495313495</v>
+        <v>0.8535093218174641</v>
       </c>
       <c r="P3">
-        <v>0.01403308004072782</v>
+        <v>0.03692647746111498</v>
       </c>
       <c r="Q3">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>690.5910748958588</v>
+        <v>452.4706460475921</v>
       </c>
       <c r="C4">
-        <v>3.344301521361214</v>
+        <v>37.40699336104347</v>
       </c>
       <c r="D4">
-        <v>6.262654733657837</v>
+        <v>5.377250480651855</v>
       </c>
       <c r="E4">
-        <v>1.992408688801679</v>
+        <v>1.909051563313509</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -691,25 +691,25 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.835016835016835</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="K4">
-        <v>0.8619528619528619</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="L4">
-        <v>0.8378378378378378</v>
+        <v>0.9149659863945578</v>
       </c>
       <c r="M4">
-        <v>0.8547297297297297</v>
+        <v>0.8088737201365188</v>
       </c>
       <c r="N4">
-        <v>0.8547297297297297</v>
+        <v>0.8498293515358362</v>
       </c>
       <c r="O4">
-        <v>0.8488533988533987</v>
+        <v>0.8514685054909336</v>
       </c>
       <c r="P4">
-        <v>0.01052094621145159</v>
+        <v>0.0348899306520958</v>
       </c>
       <c r="Q4">
         <v>22</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>265.4104756832123</v>
+        <v>223.98204870224</v>
       </c>
       <c r="C5">
-        <v>6.634441757658889</v>
+        <v>17.08038200516284</v>
       </c>
       <c r="D5">
-        <v>5.414129209518433</v>
+        <v>7.804220008850097</v>
       </c>
       <c r="E5">
-        <v>1.887400039055389</v>
+        <v>0.3302597420124867</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -744,28 +744,28 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.8215488215488216</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="K5">
-        <v>0.8585858585858586</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="L5">
-        <v>0.8412162162162162</v>
+        <v>0.9149659863945578</v>
       </c>
       <c r="M5">
-        <v>0.847972972972973</v>
+        <v>0.8156996587030717</v>
       </c>
       <c r="N5">
-        <v>0.8581081081081081</v>
+        <v>0.8566552901023891</v>
       </c>
       <c r="O5">
-        <v>0.8454863954863955</v>
+        <v>0.850797520373337</v>
       </c>
       <c r="P5">
-        <v>0.01362592020828197</v>
+        <v>0.03488929657614438</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>511.8827595710754</v>
+        <v>499.4319983482361</v>
       </c>
       <c r="C6">
-        <v>3.696294787800146</v>
+        <v>3.076390703799691</v>
       </c>
       <c r="D6">
-        <v>8.280953788757325</v>
+        <v>8.113091850280762</v>
       </c>
       <c r="E6">
-        <v>1.209019488449834</v>
+        <v>0.5026024147584973</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -797,28 +797,28 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.8282828282828283</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="K6">
-        <v>0.8653198653198653</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>0.8445945945945946</v>
+        <v>0.9149659863945578</v>
       </c>
       <c r="M6">
-        <v>0.847972972972973</v>
+        <v>0.8156996587030717</v>
       </c>
       <c r="N6">
-        <v>0.8581081081081081</v>
+        <v>0.8430034129692833</v>
       </c>
       <c r="O6">
-        <v>0.8488556738556738</v>
+        <v>0.8487474170555596</v>
       </c>
       <c r="P6">
-        <v>0.0126400559527784</v>
+        <v>0.03432767494462325</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1022.22835931778</v>
+        <v>996.4097525119781</v>
       </c>
       <c r="C7">
-        <v>7.138105272035354</v>
+        <v>6.099989569244629</v>
       </c>
       <c r="D7">
-        <v>8.887539863586426</v>
+        <v>9.134099626541138</v>
       </c>
       <c r="E7">
-        <v>0.8808771640227071</v>
+        <v>0.5899966089013295</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -850,28 +850,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.8282828282828283</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K7">
-        <v>0.8686868686868687</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="L7">
-        <v>0.8513513513513513</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M7">
-        <v>0.8547297297297297</v>
+        <v>0.8156996587030717</v>
       </c>
       <c r="N7">
-        <v>0.8581081081081081</v>
+        <v>0.8498293515358362</v>
       </c>
       <c r="O7">
-        <v>0.8522317772317771</v>
+        <v>0.8501126047688701</v>
       </c>
       <c r="P7">
-        <v>0.01331066017548234</v>
+        <v>0.03289733427609369</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>348.2273244857788</v>
+        <v>339.1784495353699</v>
       </c>
       <c r="C8">
-        <v>7.489713937701031</v>
+        <v>4.587098519039655</v>
       </c>
       <c r="D8">
-        <v>7.243649530410766</v>
+        <v>8.111970329284668</v>
       </c>
       <c r="E8">
-        <v>0.3314981796446389</v>
+        <v>0.5965798240959341</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -903,28 +903,28 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.8215488215488216</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K8">
-        <v>0.8552188552188552</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="L8">
-        <v>0.8378378378378378</v>
+        <v>0.9149659863945578</v>
       </c>
       <c r="M8">
-        <v>0.8513513513513513</v>
+        <v>0.8122866894197952</v>
       </c>
       <c r="N8">
-        <v>0.8581081081081081</v>
+        <v>0.8703071672354948</v>
       </c>
       <c r="O8">
-        <v>0.8448129948129948</v>
+        <v>0.8555663903786771</v>
       </c>
       <c r="P8">
-        <v>0.01354744733912905</v>
+        <v>0.03498017743486219</v>
       </c>
       <c r="Q8">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>677.7182320594787</v>
+        <v>667.5081128120422</v>
       </c>
       <c r="C9">
-        <v>4.031554829770465</v>
+        <v>3.967927485214571</v>
       </c>
       <c r="D9">
-        <v>8.122657442092896</v>
+        <v>8.160008335113526</v>
       </c>
       <c r="E9">
-        <v>1.164989416552008</v>
+        <v>0.9188272342353184</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -956,28 +956,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.8282828282828283</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K9">
-        <v>0.8619528619528619</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="L9">
-        <v>0.831081081081081</v>
+        <v>0.9149659863945578</v>
       </c>
       <c r="M9">
-        <v>0.8547297297297297</v>
+        <v>0.8054607508532423</v>
       </c>
       <c r="N9">
-        <v>0.8581081081081081</v>
+        <v>0.8600682593856656</v>
       </c>
       <c r="O9">
-        <v>0.8468309218309219</v>
+        <v>0.8521534210954007</v>
       </c>
       <c r="P9">
-        <v>0.01421498102368304</v>
+        <v>0.03605618168804186</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1342.835503959656</v>
+        <v>1306.09073638916</v>
       </c>
       <c r="C10">
-        <v>8.961364479534467</v>
+        <v>10.97680238153671</v>
       </c>
       <c r="D10">
-        <v>9.193659019470214</v>
+        <v>8.44206690788269</v>
       </c>
       <c r="E10">
-        <v>0.406677976020298</v>
+        <v>0.9116366652910622</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1009,28 +1009,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.8249158249158249</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="K10">
-        <v>0.8653198653198653</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>0.831081081081081</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M10">
-        <v>0.8547297297297297</v>
+        <v>0.8088737201365188</v>
       </c>
       <c r="N10">
-        <v>0.8614864864864865</v>
+        <v>0.8532423208191127</v>
       </c>
       <c r="O10">
-        <v>0.8475065975065975</v>
+        <v>0.8507905551299018</v>
       </c>
       <c r="P10">
-        <v>0.01640160992880264</v>
+        <v>0.03398855890408839</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>248.7346165180206</v>
+        <v>239.1858757019043</v>
       </c>
       <c r="C11">
-        <v>5.985295681616932</v>
+        <v>5.315047270261463</v>
       </c>
       <c r="D11">
-        <v>8.166106414794921</v>
+        <v>8.129109859466553</v>
       </c>
       <c r="E11">
-        <v>0.557819612129812</v>
+        <v>0.535678365083593</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1062,28 +1062,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.8484848484848485</v>
+        <v>0.8605442176870748</v>
       </c>
       <c r="K11">
-        <v>0.8686868686868687</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="L11">
-        <v>0.8648648648648649</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="M11">
-        <v>0.847972972972973</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="N11">
-        <v>0.8547297297297297</v>
+        <v>0.8771331058020477</v>
       </c>
       <c r="O11">
-        <v>0.8569478569478569</v>
+        <v>0.8644331452717605</v>
       </c>
       <c r="P11">
-        <v>0.008456648909940636</v>
+        <v>0.02453703341113285</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>480.1176630020142</v>
+        <v>458.9323006153107</v>
       </c>
       <c r="C12">
-        <v>16.9759744581925</v>
+        <v>8.24444110303482</v>
       </c>
       <c r="D12">
-        <v>9.002549171447754</v>
+        <v>8.334415006637574</v>
       </c>
       <c r="E12">
-        <v>0.5802987742874959</v>
+        <v>1.084187114311884</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1115,25 +1115,25 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.8417508417508418</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="K12">
-        <v>0.8686868686868687</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="L12">
-        <v>0.8648648648648649</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M12">
-        <v>0.8547297297297297</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="N12">
-        <v>0.8614864864864865</v>
+        <v>0.8703071672354948</v>
       </c>
       <c r="O12">
-        <v>0.8583037583037584</v>
+        <v>0.8644285017761371</v>
       </c>
       <c r="P12">
-        <v>0.009463187474365854</v>
+        <v>0.02566477989202918</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>940.9562682151794</v>
+        <v>884.0482102870941</v>
       </c>
       <c r="C13">
-        <v>23.80409044500237</v>
+        <v>17.78427572715443</v>
       </c>
       <c r="D13">
-        <v>8.750742387771606</v>
+        <v>8.937447881698608</v>
       </c>
       <c r="E13">
-        <v>0.722179284675717</v>
+        <v>0.763970185218812</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1168,28 +1168,28 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.8383838383838383</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="K13">
-        <v>0.8720538720538721</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="L13">
-        <v>0.875</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="M13">
-        <v>0.8547297297297297</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="N13">
-        <v>0.8581081081081081</v>
+        <v>0.8737201365187713</v>
       </c>
       <c r="O13">
-        <v>0.8596551096551096</v>
+        <v>0.8644308235239488</v>
       </c>
       <c r="P13">
-        <v>0.01317812225933154</v>
+        <v>0.02951267737556947</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>358.4927169322967</v>
+        <v>332.3159216880798</v>
       </c>
       <c r="C14">
-        <v>11.6643093739137</v>
+        <v>10.3243325552298</v>
       </c>
       <c r="D14">
-        <v>7.72322678565979</v>
+        <v>7.713501644134522</v>
       </c>
       <c r="E14">
-        <v>1.116682574647686</v>
+        <v>1.153567391274721</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1221,28 +1221,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.835016835016835</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="K14">
-        <v>0.8653198653198653</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="L14">
-        <v>0.8682432432432432</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M14">
-        <v>0.8513513513513513</v>
+        <v>0.8327645051194539</v>
       </c>
       <c r="N14">
-        <v>0.8682432432432432</v>
+        <v>0.8805460750853242</v>
       </c>
       <c r="O14">
-        <v>0.8576349076349077</v>
+        <v>0.861029462979731</v>
       </c>
       <c r="P14">
-        <v>0.01292433698030795</v>
+        <v>0.03042964418696283</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>696.4494054317474</v>
+        <v>674.0269671916961</v>
       </c>
       <c r="C15">
-        <v>17.86740259717863</v>
+        <v>9.050962431698894</v>
       </c>
       <c r="D15">
-        <v>9.28735384941101</v>
+        <v>8.483435726165771</v>
       </c>
       <c r="E15">
-        <v>0.2708973543248683</v>
+        <v>0.7163998606911801</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1274,28 +1274,28 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.8383838383838383</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="K15">
-        <v>0.8686868686868687</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="L15">
-        <v>0.8682432432432432</v>
+        <v>0.9081632653061225</v>
       </c>
       <c r="M15">
-        <v>0.8547297297297297</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="N15">
-        <v>0.8716216216216216</v>
+        <v>0.8839590443686007</v>
       </c>
       <c r="O15">
-        <v>0.8603330603330605</v>
+        <v>0.8630772445496969</v>
       </c>
       <c r="P15">
-        <v>0.01243345793958175</v>
+        <v>0.02819506625276657</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1384.973147058487</v>
+        <v>1347.854964590073</v>
       </c>
       <c r="C16">
-        <v>37.22920561913501</v>
+        <v>23.06072991671076</v>
       </c>
       <c r="D16">
-        <v>9.507639312744141</v>
+        <v>9.449986982345582</v>
       </c>
       <c r="E16">
-        <v>0.1452935824147152</v>
+        <v>0.1896086099419387</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1327,28 +1327,28 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8316498316498316</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="K16">
-        <v>0.8754208754208754</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="L16">
-        <v>0.8682432432432432</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M16">
-        <v>0.8547297297297297</v>
+        <v>0.8327645051194539</v>
       </c>
       <c r="N16">
-        <v>0.8648648648648649</v>
+        <v>0.8771331058020477</v>
       </c>
       <c r="O16">
-        <v>0.8589817089817091</v>
+        <v>0.8617074133407631</v>
       </c>
       <c r="P16">
-        <v>0.01520358233629005</v>
+        <v>0.0291369928181502</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>465.6839634418487</v>
+        <v>455.6903156757355</v>
       </c>
       <c r="C17">
-        <v>16.63360205360468</v>
+        <v>8.193579109095822</v>
       </c>
       <c r="D17">
-        <v>8.687555170059204</v>
+        <v>8.324970245361328</v>
       </c>
       <c r="E17">
-        <v>0.3023349861891196</v>
+        <v>0.6069608519235559</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1380,28 +1380,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.8249158249158249</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K17">
-        <v>0.8585858585858586</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L17">
-        <v>0.8682432432432432</v>
+        <v>0.9217687074829932</v>
       </c>
       <c r="M17">
-        <v>0.8547297297297297</v>
+        <v>0.8327645051194539</v>
       </c>
       <c r="N17">
-        <v>0.8716216216216216</v>
+        <v>0.8805460750853242</v>
       </c>
       <c r="O17">
-        <v>0.8556192556192557</v>
+        <v>0.8651110956327924</v>
       </c>
       <c r="P17">
-        <v>0.01653924682465459</v>
+        <v>0.03337047944066463</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>909.6618721961975</v>
+        <v>886.3134998798371</v>
       </c>
       <c r="C18">
-        <v>26.55608211495463</v>
+        <v>15.89749189576621</v>
       </c>
       <c r="D18">
-        <v>8.699234914779662</v>
+        <v>8.875404167175294</v>
       </c>
       <c r="E18">
-        <v>0.6720299123604198</v>
+        <v>0.17783388735425</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1433,28 +1433,28 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8282828282828283</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K18">
-        <v>0.8720538720538721</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="L18">
-        <v>0.8682432432432432</v>
+        <v>0.9149659863945578</v>
       </c>
       <c r="M18">
-        <v>0.8547297297297297</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="N18">
-        <v>0.8682432432432432</v>
+        <v>0.8839590443686007</v>
       </c>
       <c r="O18">
-        <v>0.8583105833105833</v>
+        <v>0.8671588772027583</v>
       </c>
       <c r="P18">
-        <v>0.01612874475296526</v>
+        <v>0.02851590227618081</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1803.492121648788</v>
+        <v>1752.783033180237</v>
       </c>
       <c r="C19">
-        <v>51.0172919849435</v>
+        <v>27.01801146839589</v>
       </c>
       <c r="D19">
-        <v>9.350400686264038</v>
+        <v>8.992039251327515</v>
       </c>
       <c r="E19">
-        <v>0.4175810171949135</v>
+        <v>0.5074915305833966</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1486,28 +1486,28 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.835016835016835</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="K19">
-        <v>0.8686868686868687</v>
+        <v>0.8503401360544217</v>
       </c>
       <c r="L19">
-        <v>0.8682432432432432</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M19">
-        <v>0.8581081081081081</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="N19">
-        <v>0.8716216216216216</v>
+        <v>0.8839590443686007</v>
       </c>
       <c r="O19">
-        <v>0.8603353353353353</v>
+        <v>0.8657960112372596</v>
       </c>
       <c r="P19">
-        <v>0.01345845737398862</v>
+        <v>0.02791558345183726</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>255.9704731941223</v>
+        <v>244.4731983184815</v>
       </c>
       <c r="C20">
-        <v>6.581478523430162</v>
+        <v>6.209570447892923</v>
       </c>
       <c r="D20">
-        <v>8.051165819168091</v>
+        <v>8.75261025428772</v>
       </c>
       <c r="E20">
-        <v>0.5089543319253044</v>
+        <v>0.2085578271279671</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1539,28 +1539,28 @@
         <v>34</v>
       </c>
       <c r="J20">
-        <v>0.8451178451178452</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="K20">
-        <v>0.8653198653198653</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="L20">
-        <v>0.8716216216216216</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="M20">
-        <v>0.847972972972973</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="N20">
-        <v>0.8547297297297297</v>
+        <v>0.8703071672354948</v>
       </c>
       <c r="O20">
-        <v>0.8569524069524069</v>
+        <v>0.8623853637017949</v>
       </c>
       <c r="P20">
-        <v>0.01010769608749628</v>
+        <v>0.02391105681568819</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>500.2928192138672</v>
+        <v>479.7508990287781</v>
       </c>
       <c r="C21">
-        <v>19.97947465922724</v>
+        <v>12.69084965030948</v>
       </c>
       <c r="D21">
-        <v>9.315543222427369</v>
+        <v>8.704986190795898</v>
       </c>
       <c r="E21">
-        <v>0.1278892961439092</v>
+        <v>0.3416332838880933</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1592,28 +1592,28 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>0.8383838383838383</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="K21">
-        <v>0.8686868686868687</v>
+        <v>0.8503401360544217</v>
       </c>
       <c r="L21">
-        <v>0.8682432432432432</v>
+        <v>0.9081632653061225</v>
       </c>
       <c r="M21">
-        <v>0.847972972972973</v>
+        <v>0.8430034129692833</v>
       </c>
       <c r="N21">
-        <v>0.8682432432432432</v>
+        <v>0.8771331058020477</v>
       </c>
       <c r="O21">
-        <v>0.8583060333060333</v>
+        <v>0.8664762833461029</v>
       </c>
       <c r="P21">
-        <v>0.01271946549380881</v>
+        <v>0.02376929959608278</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>969.8101441383362</v>
+        <v>940.8177704334259</v>
       </c>
       <c r="C22">
-        <v>31.17576772785739</v>
+        <v>22.05196773456433</v>
       </c>
       <c r="D22">
-        <v>9.218801736831665</v>
+        <v>9.129801797866822</v>
       </c>
       <c r="E22">
-        <v>0.6022178748574079</v>
+        <v>0.4040639858270465</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1645,25 +1645,25 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>0.8417508417508418</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="K22">
-        <v>0.8787878787878788</v>
+        <v>0.8503401360544217</v>
       </c>
       <c r="L22">
-        <v>0.8682432432432432</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M22">
-        <v>0.8547297297297297</v>
+        <v>0.8430034129692833</v>
       </c>
       <c r="N22">
-        <v>0.8682432432432432</v>
+        <v>0.8839590443686007</v>
       </c>
       <c r="O22">
-        <v>0.8623509873509873</v>
+        <v>0.868521743168257</v>
       </c>
       <c r="P22">
-        <v>0.0128223112236802</v>
+        <v>0.02565623401818014</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>366.3403617382049</v>
+        <v>355.8752275943756</v>
       </c>
       <c r="C23">
-        <v>10.66268857987647</v>
+        <v>6.921157977289512</v>
       </c>
       <c r="D23">
-        <v>8.081359910964967</v>
+        <v>8.804919958114624</v>
       </c>
       <c r="E23">
-        <v>0.4174756009509989</v>
+        <v>0.3090280028960964</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1698,28 +1698,28 @@
         <v>37</v>
       </c>
       <c r="J23">
-        <v>0.8383838383838383</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K23">
-        <v>0.8653198653198653</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L23">
-        <v>0.8682432432432432</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="M23">
-        <v>0.847972972972973</v>
+        <v>0.825938566552901</v>
       </c>
       <c r="N23">
-        <v>0.8682432432432432</v>
+        <v>0.8805460750853242</v>
       </c>
       <c r="O23">
-        <v>0.8576326326326326</v>
+        <v>0.8623853637017946</v>
       </c>
       <c r="P23">
-        <v>0.01223183360106352</v>
+        <v>0.02770083298081782</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>719.0667047023774</v>
+        <v>704.3099983692169</v>
       </c>
       <c r="C24">
-        <v>17.38551846155802</v>
+        <v>15.86522015613753</v>
       </c>
       <c r="D24">
-        <v>8.658873653411865</v>
+        <v>8.630333185195923</v>
       </c>
       <c r="E24">
-        <v>0.5204022872061477</v>
+        <v>0.6219438641213643</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1751,28 +1751,28 @@
         <v>38</v>
       </c>
       <c r="J24">
-        <v>0.835016835016835</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K24">
-        <v>0.8653198653198653</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L24">
-        <v>0.8682432432432432</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M24">
-        <v>0.8445945945945946</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="N24">
-        <v>0.8716216216216216</v>
+        <v>0.8873720136518771</v>
       </c>
       <c r="O24">
-        <v>0.8569592319592321</v>
+        <v>0.8671588772027583</v>
       </c>
       <c r="P24">
-        <v>0.01446767301397896</v>
+        <v>0.0282792604343327</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1429.421475696564</v>
+        <v>1400.052844858169</v>
       </c>
       <c r="C25">
-        <v>42.79386512891158</v>
+        <v>23.47805146302147</v>
       </c>
       <c r="D25">
-        <v>9.816536331176758</v>
+        <v>9.063414049148559</v>
       </c>
       <c r="E25">
-        <v>0.2301396340664738</v>
+        <v>0.4967867344262257</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1804,28 +1804,28 @@
         <v>39</v>
       </c>
       <c r="J25">
-        <v>0.8316498316498316</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="K25">
-        <v>0.8821548821548821</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L25">
-        <v>0.8716216216216216</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M25">
-        <v>0.8547297297297297</v>
+        <v>0.8293515358361775</v>
       </c>
       <c r="N25">
-        <v>0.8648648648648649</v>
+        <v>0.8839590443686007</v>
       </c>
       <c r="O25">
-        <v>0.861004186004186</v>
+        <v>0.8637505514151054</v>
       </c>
       <c r="P25">
-        <v>0.01718158112116474</v>
+        <v>0.03050042411650664</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>482.8104447841644</v>
+        <v>471.5568838119507</v>
       </c>
       <c r="C26">
-        <v>17.80077732805743</v>
+        <v>11.3078315612161</v>
       </c>
       <c r="D26">
-        <v>9.011509370803832</v>
+        <v>8.464238691329957</v>
       </c>
       <c r="E26">
-        <v>0.1498286405445054</v>
+        <v>0.429340681804917</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1857,28 +1857,28 @@
         <v>40</v>
       </c>
       <c r="J26">
-        <v>0.835016835016835</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K26">
-        <v>0.8552188552188552</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="L26">
-        <v>0.8682432432432432</v>
+        <v>0.9149659863945578</v>
       </c>
       <c r="M26">
-        <v>0.8547297297297297</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="N26">
-        <v>0.875</v>
+        <v>0.8805460750853242</v>
       </c>
       <c r="O26">
-        <v>0.8576417326417326</v>
+        <v>0.8664739615982914</v>
       </c>
       <c r="P26">
-        <v>0.01371085381161898</v>
+        <v>0.0285675783537862</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>935.5974669933319</v>
+        <v>909.3415281295777</v>
       </c>
       <c r="C27">
-        <v>32.16699794469399</v>
+        <v>16.11099368290508</v>
       </c>
       <c r="D27">
-        <v>8.562051343917847</v>
+        <v>7.988373613357544</v>
       </c>
       <c r="E27">
-        <v>1.131757993012991</v>
+        <v>1.149651448221717</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1910,28 +1910,28 @@
         <v>41</v>
       </c>
       <c r="J27">
-        <v>0.8282828282828283</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K27">
-        <v>0.8754208754208754</v>
+        <v>0.8537414965986394</v>
       </c>
       <c r="L27">
-        <v>0.8648648648648649</v>
+        <v>0.9149659863945578</v>
       </c>
       <c r="M27">
-        <v>0.8513513513513513</v>
+        <v>0.8464163822525598</v>
       </c>
       <c r="N27">
-        <v>0.875</v>
+        <v>0.8805460750853242</v>
       </c>
       <c r="O27">
-        <v>0.858983983983984</v>
+        <v>0.8678414710594137</v>
       </c>
       <c r="P27">
-        <v>0.01767533293242242</v>
+        <v>0.02694682824302683</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1272.130640602112</v>
+        <v>1249.246848201752</v>
       </c>
       <c r="C28">
-        <v>196.7535148600304</v>
+        <v>158.4031242191553</v>
       </c>
       <c r="D28">
-        <v>2.718576002120972</v>
+        <v>2.529356527328491</v>
       </c>
       <c r="E28">
-        <v>1.647609803903894</v>
+        <v>1.75482467204368</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -1963,28 +1963,28 @@
         <v>42</v>
       </c>
       <c r="J28">
-        <v>0.8383838383838383</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="K28">
-        <v>0.8686868686868687</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="L28">
-        <v>0.8716216216216216</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M28">
-        <v>0.8581081081081081</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="N28">
-        <v>0.8682432432432432</v>
+        <v>0.8805460750853242</v>
       </c>
       <c r="O28">
-        <v>0.861008736008736</v>
+        <v>0.8630726010540736</v>
       </c>
       <c r="P28">
-        <v>0.01220020321253987</v>
+        <v>0.02878678027201619</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
